--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_486__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_486__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,298 +5873,298 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>17.41300010681152</c:v>
+                  <c:v>17.41301727294922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0506477355957</c:v>
+                  <c:v>21.05065727233887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.64692115783691</c:v>
+                  <c:v>17.64691543579102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.41654205322266</c:v>
+                  <c:v>17.41654968261719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.07185173034668</c:v>
+                  <c:v>21.07184982299805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.41696548461914</c:v>
+                  <c:v>17.41696739196777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.54732131958008</c:v>
+                  <c:v>44.54731750488281</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.928286552429199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.54202461242676</c:v>
+                  <c:v>17.54204559326172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.41637229919434</c:v>
+                  <c:v>17.41636848449707</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.0052375793457</c:v>
+                  <c:v>21.00524139404297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.04425048828125</c:v>
+                  <c:v>20.04425430297852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.41608619689941</c:v>
+                  <c:v>17.41608810424805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.41615867614746</c:v>
+                  <c:v>17.41617012023926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.06663513183594</c:v>
+                  <c:v>21.06663703918457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.41591644287109</c:v>
+                  <c:v>17.41592407226562</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.84150505065918</c:v>
+                  <c:v>31.84151840209961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.52312469482422</c:v>
+                  <c:v>17.52311897277832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.51155281066895</c:v>
+                  <c:v>18.51155853271484</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.91716194152832</c:v>
+                  <c:v>17.91715812683105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.31277847290039</c:v>
+                  <c:v>18.31278419494629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.81731224060059</c:v>
+                  <c:v>20.81731605529785</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.43713760375977</c:v>
+                  <c:v>17.43714141845703</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44.55841445922852</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.4162712097168</c:v>
+                  <c:v>17.41626739501953</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.09508323669434</c:v>
+                  <c:v>22.09509086608887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.41633415222168</c:v>
+                  <c:v>17.41633224487305</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.41654968261719</c:v>
+                  <c:v>17.41654586791992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.845947265625</c:v>
+                  <c:v>19.84594535827637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.41621589660645</c:v>
+                  <c:v>17.41622161865234</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.33316040039062</c:v>
+                  <c:v>19.33316802978516</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.19166564941406</c:v>
+                  <c:v>17.19166946411133</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>40.74459457397461</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.41841888427734</c:v>
+                  <c:v>17.41841506958008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.41778373718262</c:v>
+                  <c:v>17.41778564453125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>40.89852142333984</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.41655349731445</c:v>
+                  <c:v>17.41655540466309</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.06633186340332</c:v>
+                  <c:v>21.06632804870605</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.41615104675293</c:v>
+                  <c:v>17.41614151000977</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-51.93155670166016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.22697067260742</c:v>
+                  <c:v>18.22697639465332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5927237868309021</c:v>
+                  <c:v>0.5927249789237976</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.21956443786621</c:v>
+                  <c:v>21.21956253051758</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.76259231567383</c:v>
+                  <c:v>18.7625846862793</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18.99581336975098</c:v>
+                  <c:v>18.99582290649414</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.41670799255371</c:v>
+                  <c:v>17.41671752929688</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.42275428771973</c:v>
+                  <c:v>17.42276763916016</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.41640090942383</c:v>
+                  <c:v>17.41638565063477</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.13593292236328</c:v>
+                  <c:v>18.13594436645508</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.02843475341797</c:v>
+                  <c:v>22.0284423828125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.41622161865234</c:v>
+                  <c:v>17.41622734069824</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.41657447814941</c:v>
+                  <c:v>17.41657638549805</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.62764739990234</c:v>
+                  <c:v>42.62765121459961</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.416748046875</c:v>
+                  <c:v>17.4167537689209</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.41634178161621</c:v>
+                  <c:v>17.41634750366211</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.53782653808594</c:v>
+                  <c:v>17.5378246307373</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.41588401794434</c:v>
+                  <c:v>17.4158878326416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.31713104248047</c:v>
+                  <c:v>21.31712532043457</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19.6064281463623</c:v>
+                  <c:v>19.60642051696777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.05824089050293</c:v>
+                  <c:v>21.05824851989746</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17.41641044616699</c:v>
+                  <c:v>17.41641426086426</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.8541202545166</c:v>
+                  <c:v>31.8541259765625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.38755798339844</c:v>
+                  <c:v>40.3875617980957</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.86002922058105</c:v>
+                  <c:v>20.86003684997559</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.34020805358887</c:v>
+                  <c:v>17.34023094177246</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.41670227050781</c:v>
+                  <c:v>17.41669654846191</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.41644477844238</c:v>
+                  <c:v>17.41644096374512</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.63554382324219</c:v>
+                  <c:v>12.63554668426514</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.64611434936523</c:v>
+                  <c:v>44.64612579345703</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17.41608428955078</c:v>
+                  <c:v>17.41609573364258</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>17.41651153564453</c:v>
+                  <c:v>17.4165210723877</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20.53017807006836</c:v>
+                  <c:v>20.53017997741699</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.373531699180603</c:v>
+                  <c:v>-1.37353515625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.41755676269531</c:v>
+                  <c:v>17.41756820678711</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>17.41669845581055</c:v>
+                  <c:v>17.41670417785645</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.06067276000977</c:v>
+                  <c:v>21.06067657470703</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>18.66411590576172</c:v>
+                  <c:v>18.66413307189941</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.41736793518066</c:v>
+                  <c:v>17.4173755645752</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.41697883605957</c:v>
+                  <c:v>17.41697692871094</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.76568412780762</c:v>
+                  <c:v>17.76568031311035</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>17.416015625</c:v>
+                  <c:v>17.41601753234863</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17.4173641204834</c:v>
+                  <c:v>17.41738128662109</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18.6367130279541</c:v>
+                  <c:v>18.63672065734863</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>17.4171199798584</c:v>
+                  <c:v>17.4171142578125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>17.41609191894531</c:v>
+                  <c:v>17.41608810424805</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21.05850219726562</c:v>
+                  <c:v>21.05851173400879</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>17.40386772155762</c:v>
+                  <c:v>17.40386962890625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>23.07842445373535</c:v>
+                  <c:v>23.07841491699219</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>17.41629600524902</c:v>
+                  <c:v>17.41630172729492</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17.42088317871094</c:v>
+                  <c:v>17.42088890075684</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>40.59670639038086</c:v>
+                  <c:v>40.59671401977539</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>21.27055358886719</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.41631507873535</c:v>
+                  <c:v>17.41631698608398</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>17.43775749206543</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>17.40096664428711</c:v>
+                  <c:v>17.40097236633301</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>21.05977439880371</c:v>
+                  <c:v>21.05976676940918</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>40.75974655151367</c:v>
+                  <c:v>40.7597541809082</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>17.41826820373535</c:v>
+                  <c:v>17.41827774047852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.41300010681152</v>
+        <v>17.41301727294922</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>21.0506477355957</v>
+        <v>21.05065727233887</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.64692115783691</v>
+        <v>17.64691543579102</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.41654205322266</v>
+        <v>17.41654968261719</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>21.07185173034668</v>
+        <v>21.07184982299805</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.41696548461914</v>
+        <v>17.41696739196777</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.54732131958008</v>
+        <v>44.54731750488281</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.54202461242676</v>
+        <v>17.54204559326172</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.41637229919434</v>
+        <v>17.41636848449707</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.0052375793457</v>
+        <v>21.00524139404297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>20.04425048828125</v>
+        <v>20.04425430297852</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.41608619689941</v>
+        <v>17.41608810424805</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.41615867614746</v>
+        <v>17.41617012023926</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>21.06663513183594</v>
+        <v>21.06663703918457</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>17.41591644287109</v>
+        <v>17.41592407226562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.84150505065918</v>
+        <v>31.84151840209961</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>17.52312469482422</v>
+        <v>17.52311897277832</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>18.51155281066895</v>
+        <v>18.51155853271484</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.91716194152832</v>
+        <v>17.91715812683105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.31277847290039</v>
+        <v>18.31278419494629</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.81731224060059</v>
+        <v>20.81731605529785</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.43713760375977</v>
+        <v>17.43714141845703</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>17.4162712097168</v>
+        <v>17.41626739501953</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>22.09508323669434</v>
+        <v>22.09509086608887</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>17.41633415222168</v>
+        <v>17.41633224487305</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>17.41654968261719</v>
+        <v>17.41654586791992</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>19.845947265625</v>
+        <v>19.84594535827637</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>17.41621589660645</v>
+        <v>17.41622161865234</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>19.33316040039062</v>
+        <v>19.33316802978516</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>17.19166564941406</v>
+        <v>17.19166946411133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>17.41841888427734</v>
+        <v>17.41841506958008</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>17.41778373718262</v>
+        <v>17.41778564453125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>17.41655349731445</v>
+        <v>17.41655540466309</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>21.06633186340332</v>
+        <v>21.06632804870605</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>17.41615104675293</v>
+        <v>17.41614151000977</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>18.22697067260742</v>
+        <v>18.22697639465332</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5927237868309021</v>
+        <v>0.5927249789237976</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>21.21956443786621</v>
+        <v>21.21956253051758</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.76259231567383</v>
+        <v>18.7625846862793</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>18.99581336975098</v>
+        <v>18.99582290649414</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>17.41670799255371</v>
+        <v>17.41671752929688</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>17.42275428771973</v>
+        <v>17.42276763916016</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>17.41640090942383</v>
+        <v>17.41638565063477</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>18.13593292236328</v>
+        <v>18.13594436645508</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>22.02843475341797</v>
+        <v>22.0284423828125</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>17.41622161865234</v>
+        <v>17.41622734069824</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>17.41657447814941</v>
+        <v>17.41657638549805</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>42.62764739990234</v>
+        <v>42.62765121459961</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.416748046875</v>
+        <v>17.4167537689209</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>17.41634178161621</v>
+        <v>17.41634750366211</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>17.53782653808594</v>
+        <v>17.5378246307373</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>17.41588401794434</v>
+        <v>17.4158878326416</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>21.31713104248047</v>
+        <v>21.31712532043457</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>19.6064281463623</v>
+        <v>19.60642051696777</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.05824089050293</v>
+        <v>21.05824851989746</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>17.41641044616699</v>
+        <v>17.41641426086426</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>31.8541202545166</v>
+        <v>31.8541259765625</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>40.38755798339844</v>
+        <v>40.3875617980957</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>20.86002922058105</v>
+        <v>20.86003684997559</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>17.34020805358887</v>
+        <v>17.34023094177246</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>17.41670227050781</v>
+        <v>17.41669654846191</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>17.41644477844238</v>
+        <v>17.41644096374512</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12.63554382324219</v>
+        <v>12.63554668426514</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>44.64611434936523</v>
+        <v>44.64612579345703</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>17.41608428955078</v>
+        <v>17.41609573364258</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>17.41651153564453</v>
+        <v>17.4165210723877</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>20.53017807006836</v>
+        <v>20.53017997741699</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>-1.373531699180603</v>
+        <v>-1.37353515625</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>17.41755676269531</v>
+        <v>17.41756820678711</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>17.41669845581055</v>
+        <v>17.41670417785645</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>21.06067276000977</v>
+        <v>21.06067657470703</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>18.66411590576172</v>
+        <v>18.66413307189941</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>17.41736793518066</v>
+        <v>17.4173755645752</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>17.41697883605957</v>
+        <v>17.41697692871094</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>17.76568412780762</v>
+        <v>17.76568031311035</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>17.416015625</v>
+        <v>17.41601753234863</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>17.4173641204834</v>
+        <v>17.41738128662109</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>18.6367130279541</v>
+        <v>18.63672065734863</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>17.4171199798584</v>
+        <v>17.4171142578125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>17.41609191894531</v>
+        <v>17.41608810424805</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>21.05850219726562</v>
+        <v>21.05851173400879</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>17.40386772155762</v>
+        <v>17.40386962890625</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>23.07842445373535</v>
+        <v>23.07841491699219</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>17.41629600524902</v>
+        <v>17.41630172729492</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>17.42088317871094</v>
+        <v>17.42088890075684</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>40.59670639038086</v>
+        <v>40.59671401977539</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>17.41631507873535</v>
+        <v>17.41631698608398</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>17.40096664428711</v>
+        <v>17.40097236633301</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>21.05977439880371</v>
+        <v>21.05976676940918</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>40.75974655151367</v>
+        <v>40.7597541809082</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>17.41826820373535</v>
+        <v>17.41827774047852</v>
       </c>
     </row>
     <row r="100" spans="1:6">
